--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H2">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I2">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J2">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>69.0289782195383</v>
+        <v>74.62689535718398</v>
       </c>
       <c r="R2">
-        <v>69.0289782195383</v>
+        <v>298.5075814287359</v>
       </c>
       <c r="S2">
-        <v>0.0793660580722754</v>
+        <v>0.07813709369921074</v>
       </c>
       <c r="T2">
-        <v>0.0793660580722754</v>
+        <v>0.04870711737785514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H3">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I3">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J3">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>27.87027333877579</v>
+        <v>0.019473327552</v>
       </c>
       <c r="R3">
-        <v>27.87027333877579</v>
+        <v>0.116839965312</v>
       </c>
       <c r="S3">
-        <v>0.03204384288089295</v>
+        <v>2.038928743160651E-05</v>
       </c>
       <c r="T3">
-        <v>0.03204384288089295</v>
+        <v>1.906463439768524E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H4">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I4">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J4">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>19.60885357859058</v>
+        <v>30.826822320208</v>
       </c>
       <c r="R4">
-        <v>19.60885357859058</v>
+        <v>184.960933921248</v>
       </c>
       <c r="S4">
-        <v>0.02254527666481768</v>
+        <v>0.03227681243543969</v>
       </c>
       <c r="T4">
-        <v>0.02254527666481768</v>
+        <v>0.0301798496229171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H5">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I5">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J5">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>45.35227113936953</v>
+        <v>21.87440786344</v>
       </c>
       <c r="R5">
-        <v>45.35227113936953</v>
+        <v>131.24644718064</v>
       </c>
       <c r="S5">
-        <v>0.052143767411843</v>
+        <v>0.02290330649104011</v>
       </c>
       <c r="T5">
-        <v>0.052143767411843</v>
+        <v>0.02141532244392941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.294318133447465</v>
+        <v>0.317424</v>
       </c>
       <c r="H6">
-        <v>0.294318133447465</v>
+        <v>0.634848</v>
       </c>
       <c r="I6">
-        <v>0.1866051893518543</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J6">
-        <v>0.1866051893518543</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>0.4403082265598455</v>
+        <v>50.674558463536</v>
       </c>
       <c r="R6">
-        <v>0.4403082265598455</v>
+        <v>304.047350781216</v>
       </c>
       <c r="S6">
-        <v>0.0005062443220252989</v>
+        <v>0.0530581193801502</v>
       </c>
       <c r="T6">
-        <v>0.0005062443220252989</v>
+        <v>0.04961103477521581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.302662779570927</v>
+        <v>0.317424</v>
       </c>
       <c r="H7">
-        <v>0.302662779570927</v>
+        <v>0.634848</v>
       </c>
       <c r="I7">
-        <v>0.1918959074319919</v>
+        <v>0.1868970758177159</v>
       </c>
       <c r="J7">
-        <v>0.1918959074319919</v>
+        <v>0.1502449105071424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>70.98612027109672</v>
+        <v>0.478831882032</v>
       </c>
       <c r="R7">
-        <v>70.98612027109672</v>
+        <v>1.915327528128</v>
       </c>
       <c r="S7">
-        <v>0.0816162818728605</v>
+        <v>0.000501354524443607</v>
       </c>
       <c r="T7">
-        <v>0.0816162818728605</v>
+        <v>0.0003125216528272304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H8">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J8">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>28.66046443455397</v>
+        <v>81.05245762407999</v>
       </c>
       <c r="R8">
-        <v>28.66046443455397</v>
+        <v>486.31474574448</v>
       </c>
       <c r="S8">
-        <v>0.03295236498296247</v>
+        <v>0.08486489281929342</v>
       </c>
       <c r="T8">
-        <v>0.03295236498296247</v>
+        <v>0.07935138293702956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H9">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J9">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>20.16481301637129</v>
+        <v>0.02115002974</v>
       </c>
       <c r="R9">
-        <v>20.16481301637129</v>
+        <v>0.19035026766</v>
       </c>
       <c r="S9">
-        <v>0.02318449095080061</v>
+        <v>2.214485605525576E-05</v>
       </c>
       <c r="T9">
-        <v>0.02318449095080061</v>
+        <v>3.105922062497153E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H10">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J10">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>46.63812005775054</v>
+        <v>33.48108879291833</v>
       </c>
       <c r="R10">
-        <v>46.63812005775054</v>
+        <v>301.329799136265</v>
       </c>
       <c r="S10">
-        <v>0.05362217202626207</v>
+        <v>0.03505592668222948</v>
       </c>
       <c r="T10">
-        <v>0.05362217202626207</v>
+        <v>0.04916761519331612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.302662779570927</v>
+        <v>0.344755</v>
       </c>
       <c r="H11">
-        <v>0.302662779570927</v>
+        <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.1918959074319919</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J11">
-        <v>0.1918959074319919</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>0.4527920524554963</v>
+        <v>23.75784906925833</v>
       </c>
       <c r="R11">
-        <v>0.4527920524554963</v>
+        <v>213.820641623325</v>
       </c>
       <c r="S11">
-        <v>0.000520597599106227</v>
+        <v>0.02487533844107104</v>
       </c>
       <c r="T11">
-        <v>0.000520597599106227</v>
+        <v>0.03488885287103473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0468752322240689</v>
+        <v>0.344755</v>
       </c>
       <c r="H12">
-        <v>0.0468752322240689</v>
+        <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.02972009057894445</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J12">
-        <v>0.02972009057894445</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>10.99405376872107</v>
+        <v>55.03776464002833</v>
       </c>
       <c r="R12">
-        <v>10.99405376872107</v>
+        <v>495.339881760255</v>
       </c>
       <c r="S12">
-        <v>0.0126404117859456</v>
+        <v>0.05762655611076567</v>
       </c>
       <c r="T12">
-        <v>0.0126404117859456</v>
+        <v>0.08082400335480079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0468752322240689</v>
+        <v>0.344755</v>
       </c>
       <c r="H13">
-        <v>0.0468752322240689</v>
+        <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.02972009057894445</v>
+        <v>0.2029893813118626</v>
       </c>
       <c r="J13">
-        <v>0.02972009057894445</v>
+        <v>0.2447720593995249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>4.438821079763964</v>
+        <v>0.5200605042149999</v>
       </c>
       <c r="R13">
-        <v>4.438821079763964</v>
+        <v>3.12036302529</v>
       </c>
       <c r="S13">
-        <v>0.00510353391685106</v>
+        <v>0.0005445224024476906</v>
       </c>
       <c r="T13">
-        <v>0.00510353391685106</v>
+        <v>0.0005091458227187538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H14">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I14">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J14">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>3.123047684414141</v>
+        <v>11.15682555448533</v>
       </c>
       <c r="R14">
-        <v>3.123047684414141</v>
+        <v>66.94095332691199</v>
       </c>
       <c r="S14">
-        <v>0.003590723639214194</v>
+        <v>0.01168160513128795</v>
       </c>
       <c r="T14">
-        <v>0.003590723639214194</v>
+        <v>0.01092267357322654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H15">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I15">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J15">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>7.223130347577962</v>
+        <v>0.002911289789333334</v>
       </c>
       <c r="R15">
-        <v>7.223130347577962</v>
+        <v>0.026201608104</v>
       </c>
       <c r="S15">
-        <v>0.008304793108863165</v>
+        <v>3.048227076390036E-06</v>
       </c>
       <c r="T15">
-        <v>0.008304793108863165</v>
+        <v>4.275284384074387E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0468752322240689</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H16">
-        <v>0.0468752322240689</v>
+        <v>0.142366</v>
       </c>
       <c r="I16">
-        <v>0.02972009057894445</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J16">
-        <v>0.02972009057894445</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>0.0701266691535498</v>
+        <v>4.60865318568511</v>
       </c>
       <c r="R16">
-        <v>0.0701266691535498</v>
+        <v>41.477878671166</v>
       </c>
       <c r="S16">
-        <v>8.062812807043028E-05</v>
+        <v>0.004825428742191103</v>
       </c>
       <c r="T16">
-        <v>8.062812807043028E-05</v>
+        <v>0.006767894789644475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0195778534170975</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H17">
-        <v>0.0195778534170975</v>
+        <v>0.142366</v>
       </c>
       <c r="I17">
-        <v>0.01241285747910751</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J17">
-        <v>0.01241285747910751</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>4.591763345615826</v>
+        <v>3.270254664514444</v>
       </c>
       <c r="R17">
-        <v>4.591763345615826</v>
+        <v>29.43229198063</v>
       </c>
       <c r="S17">
-        <v>0.005279379265665286</v>
+        <v>0.003424076452844792</v>
       </c>
       <c r="T17">
-        <v>0.005279379265665286</v>
+        <v>0.004802431125328354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0195778534170975</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H18">
-        <v>0.0195778534170975</v>
+        <v>0.142366</v>
       </c>
       <c r="I18">
-        <v>0.01241285747910751</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J18">
-        <v>0.01241285747910751</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>1.853912702318725</v>
+        <v>7.575917584702444</v>
       </c>
       <c r="R18">
-        <v>1.853912702318725</v>
+        <v>68.183258262322</v>
       </c>
       <c r="S18">
-        <v>0.002131535870706403</v>
+        <v>0.007932263285778078</v>
       </c>
       <c r="T18">
-        <v>0.002131535870706403</v>
+        <v>0.01112537895182527</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0195778534170975</v>
+        <v>0.04745533333333333</v>
       </c>
       <c r="H19">
-        <v>0.0195778534170975</v>
+        <v>0.142366</v>
       </c>
       <c r="I19">
-        <v>0.01241285747910751</v>
+        <v>0.02794137504396322</v>
       </c>
       <c r="J19">
-        <v>0.01241285747910751</v>
+        <v>0.03369273736273853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>1.304368359985876</v>
+        <v>0.07158603814599999</v>
       </c>
       <c r="R19">
-        <v>1.304368359985876</v>
+        <v>0.429516228876</v>
       </c>
       <c r="S19">
-        <v>0.001499697339819179</v>
+        <v>7.495320478491288E-05</v>
       </c>
       <c r="T19">
-        <v>0.001499697339819179</v>
+        <v>7.008363832980727E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H20">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I20">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J20">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>3.016803980436789</v>
+        <v>8.747582560922666</v>
       </c>
       <c r="R20">
-        <v>3.016803980436789</v>
+        <v>52.485495365536</v>
       </c>
       <c r="S20">
-        <v>0.003468569955396612</v>
+        <v>0.009159039444598812</v>
       </c>
       <c r="T20">
-        <v>0.003468569955396612</v>
+        <v>0.008563994157764258</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0195778534170975</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H21">
-        <v>0.0195778534170975</v>
+        <v>0.111623</v>
       </c>
       <c r="I21">
-        <v>0.01241285747910751</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J21">
-        <v>0.01241285747910751</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.49602819711562</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N21">
-        <v>1.49602819711562</v>
+        <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.002712916633152936</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P21">
-        <v>0.002712916633152936</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q21">
-        <v>0.02928902075097425</v>
+        <v>0.002282615934666667</v>
       </c>
       <c r="R21">
-        <v>0.02928902075097425</v>
+        <v>0.020543543412</v>
       </c>
       <c r="S21">
-        <v>3.367504752002758E-05</v>
+        <v>2.389982516527016E-06</v>
       </c>
       <c r="T21">
-        <v>3.367504752002758E-05</v>
+        <v>3.352064880684541E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.362280337585136</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H22">
-        <v>0.362280337585136</v>
+        <v>0.111623</v>
       </c>
       <c r="I22">
-        <v>0.2296949569558039</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J22">
-        <v>0.2296949569558039</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>234.538651801622</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N22">
-        <v>234.538651801622</v>
+        <v>291.346801</v>
       </c>
       <c r="O22">
-        <v>0.4253153856435704</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P22">
-        <v>0.4253153856435704</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q22">
-        <v>84.96874195145428</v>
+        <v>3.613444885335888</v>
       </c>
       <c r="R22">
-        <v>84.96874195145428</v>
+        <v>32.521003968023</v>
       </c>
       <c r="S22">
-        <v>0.09769279919804101</v>
+        <v>0.003783409188216271</v>
       </c>
       <c r="T22">
-        <v>0.09769279919804101</v>
+        <v>0.005306412486861226</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.362280337585136</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H23">
-        <v>0.362280337585136</v>
+        <v>0.111623</v>
       </c>
       <c r="I23">
-        <v>0.2296949569558039</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J23">
-        <v>0.2296949569558039</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.69438057492491</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N23">
-        <v>94.69438057492491</v>
+        <v>206.736805</v>
       </c>
       <c r="O23">
-        <v>0.1717199987427602</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P23">
-        <v>0.1717199987427602</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q23">
-        <v>34.30591216209914</v>
+        <v>2.564064709390555</v>
       </c>
       <c r="R23">
-        <v>34.30591216209914</v>
+        <v>23.076582384515</v>
       </c>
       <c r="S23">
-        <v>0.03944321771966899</v>
+        <v>0.002684669695685025</v>
       </c>
       <c r="T23">
-        <v>0.03944321771966899</v>
+        <v>0.003765377755240204</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.362280337585136</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H24">
-        <v>0.362280337585136</v>
+        <v>0.111623</v>
       </c>
       <c r="I24">
-        <v>0.2296949569558039</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J24">
-        <v>0.2296949569558039</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.6246872012414</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N24">
-        <v>66.6246872012414</v>
+        <v>478.929367</v>
       </c>
       <c r="O24">
-        <v>0.1208180583997979</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P24">
-        <v>0.1208180583997979</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q24">
-        <v>24.13681417076982</v>
+        <v>5.939948081404555</v>
       </c>
       <c r="R24">
-        <v>24.13681417076982</v>
+        <v>53.459532732641</v>
       </c>
       <c r="S24">
-        <v>0.02775129872362538</v>
+        <v>0.00621934327541974</v>
       </c>
       <c r="T24">
-        <v>0.02775129872362538</v>
+        <v>0.008722926644982599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.362280337585136</v>
+        <v>0.03720766666666667</v>
       </c>
       <c r="H25">
-        <v>0.362280337585136</v>
+        <v>0.111623</v>
       </c>
       <c r="I25">
-        <v>0.2296949569558039</v>
+        <v>0.02190761914033061</v>
       </c>
       <c r="J25">
-        <v>0.2296949569558039</v>
+        <v>0.02641701264797046</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>154.092684022355</v>
+        <v>1.508493</v>
       </c>
       <c r="N25">
-        <v>154.092684022355</v>
+        <v>3.016986</v>
       </c>
       <c r="O25">
-        <v>0.2794336405807186</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P25">
-        <v>0.2794336405807186</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q25">
-        <v>55.82474958701846</v>
+        <v>0.056127504713</v>
       </c>
       <c r="R25">
-        <v>55.82474958701846</v>
+        <v>0.336765028278</v>
       </c>
       <c r="S25">
-        <v>0.06418449804519173</v>
+        <v>5.876755389423269E-05</v>
       </c>
       <c r="T25">
-        <v>0.06418449804519173</v>
+        <v>5.494953824149078E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.362280337585136</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H26">
-        <v>0.362280337585136</v>
+        <v>1.197673</v>
       </c>
       <c r="I26">
-        <v>0.2296949569558039</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J26">
-        <v>0.2296949569558039</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49602819711562</v>
+        <v>235.101616</v>
       </c>
       <c r="N26">
-        <v>1.49602819711562</v>
+        <v>470.203232</v>
       </c>
       <c r="O26">
-        <v>0.002712916633152936</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P26">
-        <v>0.002712916633152936</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q26">
-        <v>0.5419816002879292</v>
+        <v>93.85828591318933</v>
       </c>
       <c r="R26">
-        <v>0.5419816002879292</v>
+        <v>563.149715479136</v>
       </c>
       <c r="S26">
-        <v>0.0006231432692767481</v>
+        <v>0.09827306423166368</v>
       </c>
       <c r="T26">
-        <v>0.0006231432692767481</v>
+        <v>0.09188845108008202</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.551509397295277</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H27">
-        <v>0.551509397295277</v>
+        <v>1.197673</v>
       </c>
       <c r="I27">
-        <v>0.349670998202298</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J27">
-        <v>0.349670998202298</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>234.538651801622</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N27">
-        <v>234.538651801622</v>
+        <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.4253153856435704</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P27">
-        <v>0.4253153856435704</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q27">
-        <v>129.3502704975594</v>
+        <v>0.02449161440133334</v>
       </c>
       <c r="R27">
-        <v>129.3502704975594</v>
+        <v>0.220424529612</v>
       </c>
       <c r="S27">
-        <v>0.1487204554487826</v>
+        <v>2.564361762823486E-05</v>
       </c>
       <c r="T27">
-        <v>0.1487204554487826</v>
+        <v>3.596640120623973E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.551509397295277</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H28">
-        <v>0.551509397295277</v>
+        <v>1.197673</v>
       </c>
       <c r="I28">
-        <v>0.349670998202298</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J28">
-        <v>0.349670998202298</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.69438057492491</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N28">
-        <v>94.69438057492491</v>
+        <v>291.346801</v>
       </c>
       <c r="O28">
-        <v>0.1717199987427602</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P28">
-        <v>0.1717199987427602</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q28">
-        <v>52.22484075812643</v>
+        <v>38.77091079934144</v>
       </c>
       <c r="R28">
-        <v>52.22484075812643</v>
+        <v>348.938197194073</v>
       </c>
       <c r="S28">
-        <v>0.06004550337167831</v>
+        <v>0.04059456413712718</v>
       </c>
       <c r="T28">
-        <v>0.06004550337167831</v>
+        <v>0.05693581934168179</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.551509397295277</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H29">
-        <v>0.551509397295277</v>
+        <v>1.197673</v>
       </c>
       <c r="I29">
-        <v>0.349670998202298</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J29">
-        <v>0.349670998202298</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>66.6246872012414</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N29">
-        <v>66.6246872012414</v>
+        <v>206.736805</v>
       </c>
       <c r="O29">
-        <v>0.1208180583997979</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P29">
-        <v>0.1208180583997979</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q29">
-        <v>36.744141083343</v>
+        <v>27.51145438386278</v>
       </c>
       <c r="R29">
-        <v>36.744141083343</v>
+        <v>247.603089454765</v>
       </c>
       <c r="S29">
-        <v>0.04224657108152086</v>
+        <v>0.02880550073407964</v>
       </c>
       <c r="T29">
-        <v>0.04224657108152086</v>
+        <v>0.04040109361199575</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.551509397295277</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H30">
-        <v>0.551509397295277</v>
+        <v>1.197673</v>
       </c>
       <c r="I30">
-        <v>0.349670998202298</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J30">
-        <v>0.349670998202298</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>154.092684022355</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N30">
-        <v>154.092684022355</v>
+        <v>478.929367</v>
       </c>
       <c r="O30">
-        <v>0.2794336405807186</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P30">
-        <v>0.2794336405807186</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q30">
-        <v>84.98356329278057</v>
+        <v>63.73341908477679</v>
       </c>
       <c r="R30">
-        <v>84.98356329278057</v>
+        <v>573.6007717629911</v>
       </c>
       <c r="S30">
-        <v>0.09770984003316203</v>
+        <v>0.06673122491513206</v>
       </c>
       <c r="T30">
-        <v>0.09770984003316203</v>
+        <v>0.09359373716596264</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.551509397295277</v>
+        <v>0.3992243333333334</v>
       </c>
       <c r="H31">
-        <v>0.551509397295277</v>
+        <v>1.197673</v>
       </c>
       <c r="I31">
-        <v>0.349670998202298</v>
+        <v>0.2350605514872131</v>
       </c>
       <c r="J31">
-        <v>0.349670998202298</v>
+        <v>0.2834446555739654</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.49602819711562</v>
+        <v>1.508493</v>
       </c>
       <c r="N31">
-        <v>1.49602819711562</v>
+        <v>3.016986</v>
       </c>
       <c r="O31">
-        <v>0.002712916633152936</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P31">
-        <v>0.002712916633152936</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q31">
-        <v>0.8250736093279755</v>
+        <v>0.6022271122630002</v>
       </c>
       <c r="R31">
-        <v>0.8250736093279755</v>
+        <v>3.613362673578001</v>
       </c>
       <c r="S31">
-        <v>0.0009486282671542047</v>
+        <v>0.0006305538515822667</v>
       </c>
       <c r="T31">
-        <v>0.0009486282671542047</v>
+        <v>0.0005895879730369279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.552323</v>
+      </c>
+      <c r="H32">
+        <v>1.104646</v>
+      </c>
+      <c r="I32">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J32">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>235.101616</v>
+      </c>
+      <c r="N32">
+        <v>470.203232</v>
+      </c>
+      <c r="O32">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P32">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q32">
+        <v>129.852029853968</v>
+      </c>
+      <c r="R32">
+        <v>519.408119415872</v>
+      </c>
+      <c r="S32">
+        <v>0.1359598329150574</v>
+      </c>
+      <c r="T32">
+        <v>0.08475118828913089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.552323</v>
+      </c>
+      <c r="H33">
+        <v>1.104646</v>
+      </c>
+      <c r="I33">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J33">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P33">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q33">
+        <v>0.033883911404</v>
+      </c>
+      <c r="R33">
+        <v>0.203303468424</v>
+      </c>
+      <c r="S33">
+        <v>3.54776967150789E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.317277856883129E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.552323</v>
+      </c>
+      <c r="H34">
+        <v>1.104646</v>
+      </c>
+      <c r="I34">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J34">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N34">
+        <v>291.346801</v>
+      </c>
+      <c r="O34">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P34">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q34">
+        <v>53.63917972290766</v>
+      </c>
+      <c r="R34">
+        <v>321.835078337446</v>
+      </c>
+      <c r="S34">
+        <v>0.05616218645968597</v>
+      </c>
+      <c r="T34">
+        <v>0.05251343654946836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.552323</v>
+      </c>
+      <c r="H35">
+        <v>1.104646</v>
+      </c>
+      <c r="I35">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J35">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N35">
+        <v>206.736805</v>
+      </c>
+      <c r="O35">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P35">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q35">
+        <v>38.06183078267166</v>
+      </c>
+      <c r="R35">
+        <v>228.37098469603</v>
+      </c>
+      <c r="S35">
+        <v>0.03985213137963969</v>
+      </c>
+      <c r="T35">
+        <v>0.03726301457419233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.552323</v>
+      </c>
+      <c r="H36">
+        <v>1.104646</v>
+      </c>
+      <c r="I36">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J36">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N36">
+        <v>478.929367</v>
+      </c>
+      <c r="O36">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P36">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q36">
+        <v>88.17456825651367</v>
+      </c>
+      <c r="R36">
+        <v>529.047409539082</v>
+      </c>
+      <c r="S36">
+        <v>0.09232200359898023</v>
+      </c>
+      <c r="T36">
+        <v>0.08632401948230606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.552323</v>
+      </c>
+      <c r="H37">
+        <v>1.104646</v>
+      </c>
+      <c r="I37">
+        <v>0.3252039971989148</v>
+      </c>
+      <c r="J37">
+        <v>0.2614286245086584</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.508493</v>
+      </c>
+      <c r="N37">
+        <v>3.016986</v>
+      </c>
+      <c r="O37">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P37">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q37">
+        <v>0.8331753792390001</v>
+      </c>
+      <c r="R37">
+        <v>3.332701516956</v>
+      </c>
+      <c r="S37">
+        <v>0.000872365148836466</v>
+      </c>
+      <c r="T37">
+        <v>0.0005437928349919804</v>
       </c>
     </row>
   </sheetData>
